--- a/src/main/resources/RulesEngine2.xlsx
+++ b/src/main/resources/RulesEngine2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t xml:space="preserve">"7-1 ARM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-Unit Product Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"G-Unit"</t>
   </si>
 </sst>
 </file>
@@ -480,8 +486,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -692,7 +698,21 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
